--- a/literature_research/FS_scopus/FS_politics.xlsx
+++ b/literature_research/FS_scopus/FS_politics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,15 +512,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Losing Battle Against Neoliberal Trade Agreements in Latin America: Social Resistance Against the MTA Between Ecuador, Peru, and the European Union</t>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This article studies the influence of the antineoliberal social movements in Peru and Ecuador in the face of the Multiparty Trade Agreement (MTA) between both countries and the European Union (EU). To identify and analyze this influence, a transdisciplinary theoretical framework was created, integrating debates and concepts from social movement theory and critical international political economy. In Peru, the movement used European allies to establish their demands on the EU’s agenda, which resulted in increased pressure on the government to enforce labor rights and environmental standards. In Ecuador, the movement was able to establish food sovereignty and the rejection of free trade in the national constitution. As a result, the negotiations with the EU were delayed and Ecuador achieved certain exceptions in its adhesion protocol. Nevertheless, both movements were unable to maintain their influence, due to political and socioeconomic dynamics on the domestic and global levels. © The Author(s), 2023.</t>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,15 +692,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rethinking scientists’ ongoing participation in “feeding the world”</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Agricultural science necessarily involves a commitment to some form of humanitarian and environmental ethics. For the past century, agricultural science has been based on a productivist ethic of maximizing agricultural production in pursuit or support of food security. Recognition of the ethical and political disposition of contemporary agricultural science can help scientists reorient their work to better address the urgent problems of the upcoming century: environmental degradation, climate change, and social inequality. A commitment to solving these problems is well within the scope of modern agricultural science. Supporting and furthering multidimensional food systems should replace productivism as an explicit goal of agricultural development and scientific innovation. Copyright © 2023 Haring, Pesci Schmulevich, Manser and Cooper.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trends in climate, socioeconomic indices and food security in Nigeria: Current realities and challenges ahead</t>
+          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Food security in Nigeria is presently in dire strait owing to several factors, such as skyrocketing energy prices, climate change, and terrorism. This study is aimed at revealing the role of the aforementioned factors in shaping food affordability and availability in the country. The study used descriptive statistics and coefficients of variation and determination to ascertain the change in the trend in these factors and their correlates to food security over time. From the results of our research team, we inferred that temperature increases, political instability, rising food prices and erratic energy supply have had distressing consequences in the areas of affordability, availability and stability of food supplies. We conclude that a rapidly growing population such as Nigeria's would need crucial interventions in increasing food production, mitigating the impacts of climate change, and buffering energy supplies. Ultimately, Nigeria needs to overhaul the important components of her food systems and the respective linkages between these components in order to ensure food security for the entire population. Copyright © 2022 Oderinde, Akano, Adesina and Omotayo.</t>
+          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
+          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
+          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Autonomy and repeasantization: Conceptual, analytical, and methodological problems</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>“Autonomy,” as a desirable state, is a notion often used by food sovereignty-oriented farmer movements and scholars studying repeasantization. The term is predominantly used rather casually, relying on presumed meanings, but van der Ploeg's book The New Peasantries seeks to elaborate a particular meaning of autonomy as a characteristic feature of the peasantry. The desire of farmers/peasants for autonomy is formulated in tandem with agroecological agriculture, farmers' agency, locally “nested” markets, co-production with nature, non-commoditized production, and multiple kinds of peasant resistance. This article identifies the distinctive nature of this take on autonomy and analyses its analytical, normative, and political aspects. It develops several critiques regarding the analytical shortcomings of the notion of peasant autonomy: the methodological problem of a peasant bias; the analytical limitations and incompatibility of intrinsic and “relative” autonomy; and the neglect of accumulation from below and subtle class contradictions. Rather than centring autonomy or relative autonomy, the authors argue for shifting the focus to the nature of different types of dependency relationships, ranging from very exploitative to those vital for human flourishing. © 2021 The Authors. Journal of Agrarian Change published by John Wiley &amp; Sons Ltd.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Does ‘food sovereignty’ engender paradigm shift or co-optation? Insights from Nepal</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Food sovereignty proponents find the terms ‘security’ and ‘right’ associated with ‘food’ as not covering the entire gamut of food and agricultural issues, especially in addressing small farmers’ and peasants’ concerns and ensuring sustainable agriculture development. Hence, they have conceptualized an alternative food paradigm and called it ‘food sovereignty’. However, food sovereignty has been interpreted and operationalized in various forms. Perhaps the choice of the term sovereignty has rendered the idea of food sovereignty ideal for co-optation because sovereignty is a historically and politically contested concept with multiple meanings attached to it. Some scholars argue that there are multiple sovereignties in food sovereignty that can be reconciled. This article analyses the case of Nepal that has adopted the idea of food sovereignty, and finds that the argument of multiple sovereignties exercised through relational and interactive measures can only be aspirational and normative at best. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The methodological strategies of agroecological research and the values with which they are linked</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The characteristic features of some of the methodological strategies adopted in scientific research in agroecology are discussed. They reflect that agroecology, as an approach to scientific research, is inextricably entangled with the other strands of agroecology (farming practice, social movement, political project); and that adopting agroecological strategies, and upholding the values of environmental sustainability, food sovereignty, social justice and democratic participation, mutually reinforce each other. After outlining the kinds of questions that agroecological research addresses so that it can produce knowledge that informs agroecological farming practices and the long term aspiration of agroecological movements to create an alternative agricultural/food system, and then making summary remarks about methodological strategies in general, three characteristic features of some agroecological strategies are introduced and discussed. The paper concludes with comments on the value of agroecological research. © 2021 Elsevier Ltd</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Placing the state in the contemporary food regime: uneven regulatory development in the Dominican Republic</t>
+          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This paper interrogates the role of the state in the contemporary food regime and argues that it is best understood as the outcome of uneven regulatory development. This concept centers the ways that legacy institutions and practices of previous food regimes persist and combine with neoliberal regulation. It is developed through an in-depth case study of agro-food regulation in the Dominican Republic, focusing on domestic rice production. The analysis speaks to the possibilities and limits of progressive food sovereignty politics in contexts where states simultaneously undermine socially transformative demands and mitigate some pernicious effects of hyper-marketization to secure state legitimacy. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Does the Arab region have an agrarian question?</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Revolutionary Potential of Food Sovereignty: Applying Lenin’s Insights on Dialectics, the State, and Political Action</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>This essay elaborates a conception of sovereignty that highlights its revolutionary potential. Its argument addresses the nature of different movement strategies in the ongoing struggle for food sovereignty and how movements ought to confront the state while simultaneously using it to create a transformative, potentially anticapitalist form of governance. This claim is built from critiques of the state and sovereignty in studies of radical democracy. The essay then presents how Lenin connects sovereignty to proletarian governance. A revolutionary conception of sovereignty, developed by placing discussions of Lenin’s work in dialogue with practices of food sovereignty, is found in collective political action that suspends state power and challenges private property to create alternative economic and noneconomic forms of organization. This dialectical rendering of sovereignty entails constructing a new order by simultaneously conflicting with and acting through the existing one. © 2021 Association for Economic and Social Analysis.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Local Food as Social Change: Food Sovereignty as a Radical New Ontology</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Local food projects are steadily becoming a part of contemporary food systems and take on many forms. They are typically analyzed using an ethical, or sociopolitical, lens. Food focused initiatives can be understood as strategies to achieve ethical change in food systems and, as such, ethics play a guiding role. But local food is also a social movement and, thus social and political theories provide unique insights during analysis. This paper begins with the position that ontology should play a more prominent part in the analysis of local food movements, as this lens could provide unique insights into basic commitments guiding such initiatives. The paper presents the argument that ontological analyses are imperative for fully understanding local food movements. It then provides an overview of the justice frameworks and ontological orientations that guide two dominant types of initiatives: Those committed to increasing food security and those committed to food sovereignty. The paper ends with the argument that food sovereignty projects are revolutionary, not only because they challenge us to change industrial food practices, but also because they are built on a radical new political ontology, and co-constitutive food-focused orientation, that forms the foundation for alternative social and political structures. © 2020 University of Sassari.</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
+          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
+          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Politics of law of the protection of plant variety (Pvt) and its implications for food security in indonesia: A maqashid al-shari'ah perspective</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The birth of the Law on Plant Variety Protection (PVP) is a consequence of Indonesia in its participation as a signatory country for the GATT/WTO agreement, which one of the series of agreements contains Trade-Related Aspects of Intellectual Property Rights (TRIPs). This agreement implies that after ratification, Indonesia must harmonize legislation in the field of intellectual property rights with the approval of TRIPs, including in the field of Plant Variety Protection. Philosophically there are several provisions in the PVP Law that need to be observed. One of them is the focus of this law that prioritizes economic interests and breeder rights rather than farmer rights. By using qualitative research and philosophical approach, this study concludes: First, in the perspective of politics of law, the protection of plant varieties in Indonesia has not been based on an ideal basis of Indonesian politics of law. Ideally, the stipulation of law in Indonesia must prioritize an ideological and normative basis that originates from Pancasila and the UUD 1945 as central values and are essential to Indonesian politics of law. Second, Plant Variety Protection in Indonesia is still oriented to food security, not to the limit of food sovereignty. The orientation of the Law on PVP should lead to efforts to liberate this country from the element of dependence on other countries by leading to food sovereignty. Third, in the perspective of Maqashid Sharia, the protection of Plant Varieties in Indonesia has not yet described efforts to create benefit for the Indonesian nation as a whole. The nature of Maqashid sharia is a benefit that rests on the interests of society in general. © IJSTR 2020.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
+          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
+          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>National general truck drivers' strike and food security in a Brazilian metropolis</t>
+          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Objective: We analysed the impact of the national general truck drivers' strike on the availability, variety and price of foods sold by a food supply centre.Design: Descriptive study using secondary data to examine the percentage change in the mean price of fruits, vegetables and eggs before, during and after the strike. The strike in Brazil lasted 10 d from 21 to 30 May 2018. The drivers were on strike in order to make diesel oil tax-free and to obtain better working conditions.Setting: The food supply centre, named CEASA-Minas Grande BH, was located in the metropolitan area of a Brazilian city.Participants: We examined twenty types of foods.Results: After 10 d, there was a ~30 % reduction in the availability of all types of foods and prices increased. Foods with the highest price increases included cabbage (233·3 %), potatoes (220·0 %), papaya (160·0 %) and oranges (78·6 %). At the end of the strike, we observed reductions in the price of eggs, fruits, vegetables, roots and tubers; however, some foods remained more expensive than before the strike, including chayote (203·2 % higher), cucumber (66·7 % higher) and potatoes (60·0 % higher).Conclusions: The general truck drivers' strike was correlated with a reduction in the availability of food and, consequently, increases in price and possibly restrictions on access. The strike demonstrated the dependence of metropolises on road transportation and the conventional market. We speculate that initiatives aiming to shorten the food supply chain and promote food sovereignty and resilience of the supply circuits could be important. © The Authors 2019.</t>
+          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mobilising for food sovereignty: The pitfalls of international human rights strategies and an exploration of alternatives</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>This article considers the role played by the language of human rights in a global campaign for food sovereignty. Led initially by the international peasants’ movement, Vía Campesina, the campaign opposes the globalisation of agricultural markets and neoliberal interventions in food production. Alongside other strategies, the campaign makes creative use of human rights and also seeks their institutionalisation in a UN Declaration on the rights of peasants. An examination of how the campaign employs human rights reveals a more complicated process than that suggested by the theoretical polarisation of ‘top down’ and ‘bottom up’ accounts of rights development in the sociology of human rights. It demonstrates both wariness of state power and attempts to harness the power of the state against international forces. It also shows that a desire for legal reform co-exists with the struggle for more radical social and political transformations. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
+          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,15 +1880,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Integration model of food security system and food sovereignty system in Indonesia</t>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>This research is important to integrate Food Security system with Food Sovereignty system. Starting from the current condition that the Food Security has not been integrated with Food Sovereignty system yet. It is known that Food Security system is developed by free market economy system, while Food Sovereignty system is determined based on national interest of a country in choosing food system considered suitable to be applied in its country. For the current condition in Indonesia, the food system still refers to the Food Security system. The Government does not have capacity to intervene the market directly and consequently, the number of food imports becomes high and the welfare of farmers slumps. Through this research, it is necessary to arrange and adapt the application of Integrated Model construction of Food Security System Integration and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. This research was conducted by using juridical-empirical approach which is oriented to holistic study and in its process, legal discipline gets the assistance of related discipline, such as economics, politics, technique, environment, human rights, social, and culture. The analysis of the research object was conducted through legal analysis. in addition to library research, data collection techniques used is field surveys and the analytical technique used is Cost-Benefit-Analysis (CBA).The result of this research is the arrangement of Integration Model Construction of Food Security System and Food Sovereignty to Achieve Sustainable Food Self-Sufficiency in Indonesia. © 2019, Institute of Advanced Scientific Research, Inc.. All rights reserved.</t>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
+          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
+          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,15 +1988,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2060,15 +2060,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Agroecology and food sovereignty</t>
+          <t>Brazil's landless movement and rights ‘from below’</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
+          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Food sovereignty and consumer sovereignty: Two antagonistic goals?</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The concept of food sovereignty is becoming an element of everyday parlance in development politics and food justice advocacy. Yet to successfully achieve food sovereignty, the demands within this movement have to be compatible with the way people are pursuing consumer sovereignty and vice versa. The aim of this article is to examine the different sets of demands that the two ideals of sovereignty bring about, analyze in how far these different demands can stand in constructive relations with each other, and explain why consumers have to adjust their food choices to seasonal production variability to promote food sovereignty and so secure future autonomy. © 2017 Taylor &amp; Francis.</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2204,15 +2204,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+          <t>The intersection of food security and biodiversity conservation: a review</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2276,15 +2276,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2312,15 +2312,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Food security problems and imperatives of the North Caucasus macro-region subjects</t>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>This article concerns the analysis of food security in the North Caucasian macro-region. Any State is faced the challenge to provide safe food of domestic production to its population. This task is particularly relevant due to the emergence of a series of challenges and threats for country food sovereignty and its solution is impossible without active state support. The subjects of the North Caucasus Federal District have been selected as objects for this research. To identify the problems in country food security, the authors analyzed the global rating «The Global Food Security Index" of the world's states. The authors also studied the internal and the external, economic and political objective and subjective factors and the potential for food security of macro-region. The authors analyzed the dynamics of development of the main types of agricultural production, the self-reliance level and production of basic foods, norms and actual food consumption. The authors show that with current sanctions and Russian anti-sanctions, there is a possibility of significant increase in agricultural production. The article draws conclusions on the significant differentiation of population per capita incomes by regions of the country and consumption of staple food. This study made it possible to identify the main problems and their impact on current Agro-Food market of the Russian Federation. The study recommends measures to strengthen food security by operational regional monitoring and by defining the evaluation indicators system of the level of food security comparable to systems at the international level. © 2018 International Strategic Management Association. All rights reserved.</t>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Government policies for food sovereignty: Disjunction between ideality and reality</t>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The conceptualizes food security and food sovereignty as fluid and changing discourses that define the problem of hunger. The discursive geohistories of food security and food sovereignty in order to identify oppositions and relationalities between them. I argue that the interpretations of, and relations between, food security and food sovereignty vary by geography and scale, as well as by the conceptual and theoretical differences within the discourses themselves. When and where these discourses develop and emerge is central to understanding their oppositions and convergences. How scale is constructed within particular discourses is also important to understanding how they co-exist relationally or in opposition. Food security and food sovereignty discourses are tied to distinctive political and economic histories, ecologies, and identities at the national and local levels. They are differentially deployed depending upon geographic context and the political economy of development and underdevelopment. Both discourses are dynamic and changing in relation to the wider political and cultural economies of food system dynamics across scale. Uniform definitions of each term should be resisted. The point is to understand the geographies of their relational overlap and their continual difference. © 2018 HALREV. All rights reserved.</t>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Brazil's landless movement and rights ‘from below’</t>
+          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
+          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2420,15 +2420,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
+          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
+          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2456,15 +2456,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2492,15 +2492,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
+          <t>From world hunger to food sovereignty: Food ethics and human development</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
+          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2528,15 +2528,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2553,330 +2553,6 @@
         </is>
       </c>
       <c r="H59" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>The intersection of food security and biodiversity conservation: a review</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Food security and biodiversity conservation are key challenges of the twenty-first century. While traditionally these two challenges were addressed separately, recently, papers have begun to specifically address the nexus of food security and biodiversity conservation. We conducted a structured literature review of 91 papers addressing this nexus. To ascertain how a given paper approached the topic, we assessed to what extent it covered 68 potentially relevant issues. The resulting dataset was analyzed using cluster analysis. Two main branches of literature, containing a total of six clusters of papers, were identified. The “biophysical-technical” branch (clusters: “sustainable intensification” and “production focus”) was dominated by the natural sciences, focused strongly on the production aspect of food security, and sought general solutions. In contrast, the “social-political” branch (clusters: “social-ecological development”; “empowerment for food security”; “agroecology and food sovereignty”; and “social-ecological systems”) often drew on the social sciences and emphasized social relations and governance, alongside broader considerations of sustainability and human well-being. While the biophysical-technical branch was often global in focus, much of the social-political branch focused on specific localities. Two clusters of papers, one from each branch, stood out as being particularly broad in scope—namely the clusters on “sustainable intensification” and “agroecology and food sovereignty.” Despite major differences in their conceptual basis, we argue that exchange between these two research clusters could be particularly helpful in generating insights on the food–biodiversity nexus that are both generally applicable and sufficiently nuanced to capture key system-specific variables. © 2015, Springer-Verlag Berlin Heidelberg.</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Reintegrating economy, society, and environment for cooperative futures: Polanyi, Marx, and food sovereignty</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>This paper attempts to ‘put in their place' (Sum and Jessop 2013) some key issues that frame the question of ‘the more-than-economic dimensions of co-operation'. In particular, it asks why capitalism deconstructs socio-natural reality into the ‘common-sense' and discrete institutional spheres of ‘economy', ‘society' and ‘environment', an institutional constellation in which the ‘economy' is usually afforded pre-eminence. Building on this, the paper further asks: why does the organization of society around the commodity form, and specifically around the generalization of the commodity form to labour-power that is the defining feature of capitalism, have the tendential effect of fragmenting, atomizing, and marginalizing social collectivities and cooperative behaviour? This question is answered through examination of the work of Polanyi and Marx, arguing that it is the latter who is best able to explain the nature and dynamics of capitalism, and its relationship to cooperative activity. The paper elaborates the Marxian approach and suggests strong linkages with the ‘radical' fraction of the food sovereignty movement. The latter, like Marx, appears to invoke unconstrained cooperation as ‘actual' autonomy; the paper asks what the political and ecological prerequisites for the realization of this social imaginary might be. © 2016 Elsevier Ltd</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>‘Rescaling’ alternative food systems: from food security to food sovereignty</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>In this paper, we critically interrogate the benefits of an interdisciplinary and theoretically diverse dialogue between ‘local food’ and ‘alternative food networks’ (AFNs) and outline how this dialogue might be enriched by a closer engagement with discourses of food sovereignty and the politics of scale. In arguing for a shift towards a greater emphasis on food sovereignty, we contend that contemporary discourses of food security are inadequate for the ongoing task of ensuring a just and sustainable economy of food. Further, rather than treating the local and the global as ontologically given categories around which to contest the politics of food, it is our contention that recognising the socio-spatial aspects of the politics of scale has the potential to reinvigorate discourses of food security, food sovereignty and AFNs. Understanding scale as both fixed to a degree as well as contingent and dynamic has implications for an understanding of the role of food systems, for how the rescaled state privileges certain food systems and the possibilities for resistance through ‘jumping scale’ and food utopias. All of these aspects are significant if we are to fully comprehend and contest the challenges of envisioning and enacting real utopias of food sovereignty. © 2015, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>From world hunger to food sovereignty: Food ethics and human development</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>_</t>
         </is>
